--- a/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8F3D868-8641-4F80-85F3-DBBD158A386F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{994EBFED-B582-4469-BEF3-48520C0712E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E121AE00-DB8C-410C-A380-EAA2A476360F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85876036-A417-4E76-89EC-8FE38AC89FAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,28 +77,28 @@
     <t>6,26%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,74%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1132 +140,1132 @@
     <t>6,28%</t>
   </si>
   <si>
-    <t>4,63%</t>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>8,58%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
   </si>
   <si>
     <t>91,42%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>91,46%</t>
+    <t>92,65%</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC70202-154A-4EAC-B11A-B050E3B44674}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180B9484-407F-4190-BBE6-B19F5BB5CD7F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2579,10 +2579,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>200</v>
@@ -2591,13 +2591,13 @@
         <v>205215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>391</v>
@@ -2606,13 +2606,13 @@
         <v>388244</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,16 +2624,16 @@
         <v>3022</v>
       </c>
       <c r="D20" s="7">
-        <v>3092497</v>
+        <v>3092498</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>3097</v>
@@ -2642,28 +2642,28 @@
         <v>3173983</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>6119</v>
       </c>
       <c r="N20" s="7">
-        <v>6266478</v>
+        <v>6266479</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2675,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2705,7 +2705,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462227B8-24AC-49B8-863A-CE9454329CEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3BC6E-57CB-48F5-9BEC-4A6DC568DA7B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2757,7 +2757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2864,13 +2864,13 @@
         <v>4137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2879,13 +2879,13 @@
         <v>5441</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2894,13 +2894,13 @@
         <v>9578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2915,13 @@
         <v>110813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2930,13 +2930,13 @@
         <v>106464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2945,13 +2945,13 @@
         <v>217277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +3019,13 @@
         <v>44492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -3034,13 +3034,13 @@
         <v>43156</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3049,13 +3049,13 @@
         <v>87648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3070,13 @@
         <v>541322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -3085,13 +3085,13 @@
         <v>539227</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1018</v>
@@ -3100,10 +3100,10 @@
         <v>1080548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>154</v>
@@ -3174,13 +3174,13 @@
         <v>65570</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3189,13 +3189,13 @@
         <v>82234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -3204,13 +3204,13 @@
         <v>147804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,28 +3225,28 @@
         <v>952377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>860</v>
       </c>
       <c r="I11" s="7">
-        <v>945542</v>
+        <v>945541</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1736</v>
@@ -3255,13 +3255,13 @@
         <v>1897918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,7 +3288,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>1027775</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3329,13 +3329,13 @@
         <v>48637</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -3344,13 +3344,13 @@
         <v>65872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -3359,13 +3359,13 @@
         <v>114508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3380,13 @@
         <v>707901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>642</v>
@@ -3395,13 +3395,13 @@
         <v>710411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1286</v>
@@ -3410,13 +3410,13 @@
         <v>1418313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3484,13 @@
         <v>87235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3499,13 +3499,13 @@
         <v>103284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -3514,13 +3514,13 @@
         <v>190519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3535,13 @@
         <v>858695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -3550,13 +3550,13 @@
         <v>945479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1729</v>
@@ -3565,13 +3565,13 @@
         <v>1804175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3639,13 @@
         <v>250071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>283</v>
@@ -3654,13 +3654,13 @@
         <v>299986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>512</v>
@@ -3669,13 +3669,13 @@
         <v>550056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3690,13 @@
         <v>3171108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3005</v>
@@ -3705,28 +3705,28 @@
         <v>3247124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>5979</v>
       </c>
       <c r="N20" s="7">
-        <v>6418232</v>
+        <v>6418233</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,7 +3768,7 @@
         <v>6491</v>
       </c>
       <c r="N21" s="7">
-        <v>6968288</v>
+        <v>6968289</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD858BF-A8E3-4BBD-932C-DB70FE7EEEB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA84F83-3CAF-466C-978B-9AFD6E4A8FB1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3820,7 +3820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3927,13 +3927,13 @@
         <v>9086</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3942,13 +3942,13 @@
         <v>10365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3957,13 +3957,13 @@
         <v>19451</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3978,13 @@
         <v>107460</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -3993,13 +3993,13 @@
         <v>102995</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
         <v>209</v>
@@ -4008,13 +4008,13 @@
         <v>210455</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4082,13 @@
         <v>56462</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4097,13 +4097,13 @@
         <v>48377</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -4112,13 +4112,13 @@
         <v>104839</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4133,13 @@
         <v>501792</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>506</v>
@@ -4148,13 +4148,13 @@
         <v>511102</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>989</v>
@@ -4240,10 +4240,10 @@
         <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -4252,13 +4252,13 @@
         <v>78793</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4267,13 +4267,13 @@
         <v>159225</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4288,13 @@
         <v>941999</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>911</v>
@@ -4303,13 +4303,13 @@
         <v>964120</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>1781</v>
@@ -4318,13 +4318,13 @@
         <v>1906119</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4392,13 @@
         <v>69659</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -4407,13 +4407,13 @@
         <v>61360</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4422,13 +4422,13 @@
         <v>131019</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>689893</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>682</v>
@@ -4458,10 +4458,10 @@
         <v>723651</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>286</v>
@@ -4547,13 +4547,13 @@
         <v>68169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -4562,13 +4562,13 @@
         <v>79048</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>132</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -4577,13 +4577,13 @@
         <v>147216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4598,13 @@
         <v>869398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>892</v>
@@ -4613,13 +4613,13 @@
         <v>964731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>1750</v>
@@ -4628,13 +4628,13 @@
         <v>1834130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4702,13 @@
         <v>283807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>241</v>
@@ -4717,13 +4717,13 @@
         <v>277943</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>526</v>
@@ -4732,13 +4732,13 @@
         <v>561750</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>59</v>
+        <v>308</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4753,13 @@
         <v>3110543</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>3097</v>
@@ -4768,13 +4768,13 @@
         <v>3266599</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>313</v>
+        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>6043</v>
@@ -4783,13 +4783,13 @@
         <v>6377142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>315</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,7 +4845,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237C465F-F481-4FBA-A07F-4D8E0A5B724A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F7D585-61C8-417F-880A-0A2EB1106610}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4883,7 +4883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4990,13 +4990,13 @@
         <v>7793</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -5005,13 +5005,13 @@
         <v>17591</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -5020,13 +5020,13 @@
         <v>25385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5041,13 @@
         <v>94189</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
@@ -5056,13 +5056,13 @@
         <v>113142</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>304</v>
@@ -5071,13 +5071,13 @@
         <v>207330</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5145,13 @@
         <v>55825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -5160,13 +5160,13 @@
         <v>48994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>194</v>
@@ -5175,13 +5175,13 @@
         <v>104819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5196,13 @@
         <v>493998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>887</v>
@@ -5211,13 +5211,13 @@
         <v>543968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>1414</v>
@@ -5226,13 +5226,13 @@
         <v>1037966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5300,13 @@
         <v>82296</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -5315,13 +5315,13 @@
         <v>80442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M10" s="7">
         <v>264</v>
@@ -5330,13 +5330,13 @@
         <v>162738</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5351,13 @@
         <v>956952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
         <v>1366</v>
@@ -5366,13 +5366,13 @@
         <v>979032</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>2216</v>
@@ -5381,13 +5381,13 @@
         <v>1935984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5455,13 @@
         <v>58545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>280</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5470,13 +5470,13 @@
         <v>47568</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -5485,13 +5485,13 @@
         <v>106113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5506,13 @@
         <v>669156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>969</v>
@@ -5521,13 +5521,13 @@
         <v>826178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>1575</v>
@@ -5536,13 +5536,13 @@
         <v>1495334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5610,13 @@
         <v>93543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>274</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -5625,13 +5625,13 @@
         <v>83216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
@@ -5640,13 +5640,13 @@
         <v>176759</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5661,13 @@
         <v>871860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H17" s="7">
         <v>1417</v>
@@ -5676,13 +5676,13 @@
         <v>1063087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M17" s="7">
         <v>2299</v>
@@ -5691,13 +5691,13 @@
         <v>1934947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5765,13 @@
         <v>298003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>307</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H19" s="7">
         <v>522</v>
@@ -5780,13 +5780,13 @@
         <v>277810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>927</v>
@@ -5795,13 +5795,13 @@
         <v>575813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5816,13 @@
         <v>3086155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>4838</v>
@@ -5831,10 +5831,10 @@
         <v>3525408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>406</v>
@@ -5843,16 +5843,16 @@
         <v>7808</v>
       </c>
       <c r="N20" s="7">
-        <v>6611562</v>
+        <v>6611563</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,7 +5894,7 @@
         <v>8735</v>
       </c>
       <c r="N21" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{994EBFED-B582-4469-BEF3-48520C0712E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D2359F4-22FF-4BD7-81C7-789EDA48FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{85876036-A417-4E76-89EC-8FE38AC89FAE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58B9E217-ACBD-496C-921A-F46E86FFAD34}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,1098 +77,1080 @@
     <t>6,26%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>6,93%</t>
   </si>
   <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>93,07%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
   </si>
   <si>
     <t>4,22%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
   </si>
   <si>
     <t>95,78%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
   </si>
   <si>
     <t>92,43%</t>
   </si>
   <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
   </si>
   <si>
     <t>5,43%</t>
   </si>
   <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>6,04%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>93,96%</t>
   </si>
   <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
     <t>92,89%</t>
   </si>
   <si>
@@ -1187,18 +1169,12 @@
     <t>9,69%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
     <t>7,26%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
     <t>8,37%</t>
   </si>
   <si>
@@ -1211,15 +1187,9 @@
     <t>90,31%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>91,42%</t>
-  </si>
-  <si>
     <t>93,92%</t>
   </si>
   <si>
@@ -1238,9 +1208,6 @@
     <t>9,75%</t>
   </si>
   <si>
-    <t>7,3%</t>
-  </si>
-  <si>
     <t>6,49%</t>
   </si>
   <si>
@@ -1254,9 +1221,6 @@
   </si>
   <si>
     <t>92,02%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
   </si>
   <si>
     <t>93,51%</t>
@@ -1677,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180B9484-407F-4190-BBE6-B19F5BB5CD7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D66923-B264-4607-90C2-75B45805BF8F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2594,10 +2558,10 @@
         <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>391</v>
@@ -2606,10 +2570,10 @@
         <v>388244</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>114</v>
@@ -2624,7 +2588,7 @@
         <v>3022</v>
       </c>
       <c r="D20" s="7">
-        <v>3092498</v>
+        <v>3092497</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2648,7 +2612,7 @@
         <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>6119</v>
@@ -2657,13 +2621,13 @@
         <v>6266479</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2675,7 +2639,7 @@
         <v>3213</v>
       </c>
       <c r="D21" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2740,7 +2704,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3BC6E-57CB-48F5-9BEC-4A6DC568DA7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001A0C58-406C-4F07-AAB4-015BE15F9016}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2894,13 +2858,13 @@
         <v>9578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2879,13 @@
         <v>110813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2930,13 +2894,13 @@
         <v>106464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2945,13 +2909,13 @@
         <v>217277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,13 +2983,13 @@
         <v>44492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -3034,13 +2998,13 @@
         <v>43156</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3049,13 +3013,13 @@
         <v>87648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>56</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3034,13 @@
         <v>541322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -3085,13 +3049,13 @@
         <v>539227</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1018</v>
@@ -3100,13 +3064,13 @@
         <v>1080548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3138,13 @@
         <v>65570</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3189,13 +3153,13 @@
         <v>82234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -3204,13 +3168,13 @@
         <v>147804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3189,13 @@
         <v>952377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H11" s="7">
         <v>860</v>
@@ -3240,13 +3204,13 @@
         <v>945541</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1736</v>
@@ -3255,13 +3219,13 @@
         <v>1897918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,10 +3296,10 @@
         <v>114</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -3344,13 +3308,13 @@
         <v>65872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -3359,13 +3323,13 @@
         <v>114508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3344,13 @@
         <v>707901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H14" s="7">
         <v>642</v>
@@ -3395,13 +3359,13 @@
         <v>710411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M14" s="7">
         <v>1286</v>
@@ -3410,13 +3374,13 @@
         <v>1418313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3448,13 @@
         <v>87235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3499,13 +3463,13 @@
         <v>103284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -3514,13 +3478,13 @@
         <v>190519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3499,13 @@
         <v>858695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -3550,13 +3514,13 @@
         <v>945479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M17" s="7">
         <v>1729</v>
@@ -3565,13 +3529,13 @@
         <v>1804175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3603,13 @@
         <v>250071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>283</v>
@@ -3654,13 +3618,13 @@
         <v>299986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>512</v>
@@ -3669,13 +3633,13 @@
         <v>550056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3654,13 @@
         <v>3171108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>3005</v>
@@ -3705,7 +3669,7 @@
         <v>3247124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>218</v>
@@ -3717,7 +3681,7 @@
         <v>5979</v>
       </c>
       <c r="N20" s="7">
-        <v>6418233</v>
+        <v>6418232</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>220</v>
@@ -3768,7 +3732,7 @@
         <v>6491</v>
       </c>
       <c r="N21" s="7">
-        <v>6968289</v>
+        <v>6968288</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3803,7 +3767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA84F83-3CAF-466C-978B-9AFD6E4A8FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611ED2E9-E757-4DDF-A95F-74E055962DB5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3945,10 +3909,10 @@
         <v>227</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3957,13 +3921,13 @@
         <v>19451</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>209</v>
+        <v>34</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3942,13 @@
         <v>107460</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -3993,13 +3957,13 @@
         <v>102995</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="M5" s="7">
         <v>209</v>
@@ -4008,13 +3972,13 @@
         <v>210455</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>217</v>
+        <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4046,13 @@
         <v>56462</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -4097,13 +4061,13 @@
         <v>48377</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>101</v>
@@ -4112,13 +4076,13 @@
         <v>104839</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4097,13 @@
         <v>501792</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>506</v>
@@ -4148,13 +4112,13 @@
         <v>511102</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M8" s="7">
         <v>989</v>
@@ -4240,10 +4204,10 @@
         <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>66</v>
@@ -4252,13 +4216,13 @@
         <v>78793</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4294,7 +4258,7 @@
         <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>911</v>
@@ -4303,10 +4267,10 @@
         <v>964120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>267</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>268</v>
@@ -4410,10 +4374,10 @@
         <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4422,13 +4386,13 @@
         <v>131019</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4407,13 @@
         <v>689893</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>682</v>
@@ -4458,13 +4422,13 @@
         <v>723651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>27</v>
       </c>
       <c r="M14" s="7">
         <v>1314</v>
@@ -4473,13 +4437,13 @@
         <v>1413544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,13 +4511,13 @@
         <v>68169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -4562,13 +4526,13 @@
         <v>79048</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>132</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -4577,13 +4541,13 @@
         <v>147216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>32</v>
+        <v>292</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4562,13 @@
         <v>869398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>892</v>
@@ -4613,13 +4577,13 @@
         <v>964731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>139</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>1750</v>
@@ -4628,13 +4592,13 @@
         <v>1834130</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>41</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4702,13 +4666,13 @@
         <v>283807</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>241</v>
@@ -4717,10 +4681,10 @@
         <v>277943</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>307</v>
@@ -4732,13 +4696,13 @@
         <v>561750</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="P19" s="7" t="s">
-        <v>309</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4717,13 @@
         <v>3110543</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>3097</v>
@@ -4768,13 +4732,13 @@
         <v>3266599</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M20" s="7">
         <v>6043</v>
@@ -4783,13 +4747,13 @@
         <v>6377142</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4866,7 +4830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F7D585-61C8-417F-880A-0A2EB1106610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7398633C-0D9F-4F6B-9027-9FB9570580B8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4883,7 +4847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4990,13 +4954,13 @@
         <v>7793</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>44</v>
@@ -5005,13 +4969,13 @@
         <v>17591</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -5020,13 +4984,13 @@
         <v>25385</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5005,13 @@
         <v>94189</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>199</v>
@@ -5056,13 +5020,13 @@
         <v>113142</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>304</v>
@@ -5071,13 +5035,13 @@
         <v>207330</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5109,13 @@
         <v>55825</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>59</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -5160,13 +5124,13 @@
         <v>48994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>194</v>
@@ -5178,10 +5142,10 @@
         <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5160,13 @@
         <v>493998</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>887</v>
@@ -5211,13 +5175,13 @@
         <v>543968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>1414</v>
@@ -5226,13 +5190,13 @@
         <v>1037966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5264,13 @@
         <v>82296</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>354</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -5315,13 +5279,13 @@
         <v>80442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>355</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>264</v>
@@ -5330,13 +5294,13 @@
         <v>162738</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>359</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,10 +5315,10 @@
         <v>956952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>21</v>
@@ -5366,13 +5330,13 @@
         <v>979032</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>2216</v>
@@ -5381,13 +5345,13 @@
         <v>1935984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5419,13 @@
         <v>58545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5470,13 +5434,13 @@
         <v>47568</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>360</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -5485,13 +5449,13 @@
         <v>106113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5470,13 @@
         <v>669156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>367</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="H14" s="7">
         <v>969</v>
@@ -5521,13 +5485,13 @@
         <v>826178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>369</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>1575</v>
@@ -5536,13 +5500,13 @@
         <v>1495334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,10 +5574,10 @@
         <v>93543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>274</v>
@@ -5625,13 +5589,13 @@
         <v>83216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>215</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
@@ -5640,13 +5604,13 @@
         <v>176759</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5625,13 @@
         <v>871860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>390</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>1417</v>
@@ -5676,13 +5640,13 @@
         <v>1063087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>2299</v>
@@ -5691,13 +5655,13 @@
         <v>1934947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5729,13 @@
         <v>298003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>522</v>
@@ -5780,13 +5744,13 @@
         <v>277810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>399</v>
+        <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>59</v>
       </c>
       <c r="M19" s="7">
         <v>927</v>
@@ -5795,13 +5759,13 @@
         <v>575813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>385</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5780,13 @@
         <v>3086155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>4838</v>
@@ -5831,13 +5795,13 @@
         <v>3525408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>347</v>
+        <v>67</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="M20" s="7">
         <v>7808</v>
@@ -5846,13 +5810,13 @@
         <v>6611563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>392</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D2359F4-22FF-4BD7-81C7-789EDA48FC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C608E4-ED09-4313-B2EC-282834D2E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{58B9E217-ACBD-496C-921A-F46E86FFAD34}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{71FC454E-25C0-4DE0-8BB5-4317A265FA83}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
   </si>
   <si>
     <t>5,75%</t>
   </si>
   <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>93,74%</t>
   </si>
   <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>94,77%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1096 +140,1132 @@
     <t>6,28%</t>
   </si>
   <si>
-    <t>4,45%</t>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
   </si>
   <si>
     <t>92,05%</t>
   </si>
   <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>90,23%</t>
   </si>
   <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,48%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>91,99%</t>
   </si>
   <si>
-    <t>92,65%</t>
+    <t>91,46%</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D66923-B264-4607-90C2-75B45805BF8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91FB08A-82CC-40B4-A0A4-209CC41ED63E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2543,10 +2579,10 @@
         <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>200</v>
@@ -2555,13 +2591,13 @@
         <v>205215</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
       <c r="M19" s="7">
         <v>391</v>
@@ -2570,13 +2606,13 @@
         <v>388244</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2627,13 @@
         <v>3092497</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="H20" s="7">
         <v>3097</v>
@@ -2606,28 +2642,28 @@
         <v>3173983</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>6119</v>
       </c>
       <c r="N20" s="7">
-        <v>6266479</v>
+        <v>6266478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,7 +2705,7 @@
         <v>6510</v>
       </c>
       <c r="N21" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2683,7 +2719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2704,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001A0C58-406C-4F07-AAB4-015BE15F9016}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC777DC-5E96-4800-A2E0-B6E95013C94A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2721,7 +2757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2828,13 +2864,13 @@
         <v>4137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -2843,13 +2879,13 @@
         <v>5441</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -2858,13 +2894,13 @@
         <v>9578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,13 +2915,13 @@
         <v>110813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>94</v>
@@ -2894,13 +2930,13 @@
         <v>106464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2909,13 +2945,13 @@
         <v>217277</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,13 +3019,13 @@
         <v>44492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -2998,13 +3034,13 @@
         <v>43156</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -3013,13 +3049,13 @@
         <v>87648</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3070,13 @@
         <v>541322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>508</v>
@@ -3049,13 +3085,13 @@
         <v>539227</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>1018</v>
@@ -3064,13 +3100,13 @@
         <v>1080548</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3174,13 @@
         <v>65570</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H10" s="7">
         <v>76</v>
@@ -3153,13 +3189,13 @@
         <v>82234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -3168,13 +3204,13 @@
         <v>147804</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,28 +3225,28 @@
         <v>952377</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>169</v>
+        <v>117</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>860</v>
       </c>
       <c r="I11" s="7">
-        <v>945541</v>
+        <v>945542</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1736</v>
@@ -3219,13 +3255,13 @@
         <v>1897918</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,7 +3288,7 @@
         <v>936</v>
       </c>
       <c r="I12" s="7">
-        <v>1027775</v>
+        <v>1027776</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3293,13 +3329,13 @@
         <v>48637</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>62</v>
@@ -3308,13 +3344,13 @@
         <v>65872</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -3323,13 +3359,13 @@
         <v>114508</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>183</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,13 +3380,13 @@
         <v>707901</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>642</v>
@@ -3359,13 +3395,13 @@
         <v>710411</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>1286</v>
@@ -3374,13 +3410,13 @@
         <v>1418313</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,13 +3484,13 @@
         <v>87235</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>99</v>
@@ -3463,13 +3499,13 @@
         <v>103284</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>179</v>
@@ -3478,13 +3514,13 @@
         <v>190519</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3535,13 @@
         <v>858695</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H17" s="7">
         <v>901</v>
@@ -3514,13 +3550,13 @@
         <v>945479</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M17" s="7">
         <v>1729</v>
@@ -3529,13 +3565,13 @@
         <v>1804175</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3639,13 @@
         <v>250071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H19" s="7">
         <v>283</v>
@@ -3618,13 +3654,13 @@
         <v>299986</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M19" s="7">
         <v>512</v>
@@ -3633,13 +3669,13 @@
         <v>550056</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3690,13 @@
         <v>3171108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="H20" s="7">
         <v>3005</v>
@@ -3669,13 +3705,13 @@
         <v>3247124</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M20" s="7">
         <v>5979</v>
@@ -3684,13 +3720,13 @@
         <v>6418232</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,7 +3782,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3767,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611ED2E9-E757-4DDF-A95F-74E055962DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EF5337-2575-409B-95D0-5F1C6B654606}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3784,7 +3820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3891,13 +3927,13 @@
         <v>9086</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -3906,13 +3942,13 @@
         <v>10365</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>19</v>
@@ -3921,13 +3957,13 @@
         <v>19451</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>34</v>
+        <v>206</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3978,13 @@
         <v>107460</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>106</v>
@@ -3957,13 +3993,13 @@
         <v>102995</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M5" s="7">
         <v>209</v>
@@ -3972,7 +4008,7 @@
         <v>210455</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>236</v>
@@ -4222,7 +4258,7 @@
         <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>147</v>
@@ -4231,13 +4267,13 @@
         <v>159225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4288,13 @@
         <v>941999</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>911</v>
@@ -4267,13 +4303,13 @@
         <v>964120</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>1781</v>
@@ -4282,13 +4318,13 @@
         <v>1906119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,13 +4392,13 @@
         <v>69659</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -4371,13 +4407,13 @@
         <v>61360</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="M13" s="7">
         <v>118</v>
@@ -4386,13 +4422,13 @@
         <v>131019</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4443,13 @@
         <v>689893</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>682</v>
@@ -4422,13 +4458,13 @@
         <v>723651</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>27</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>1314</v>
@@ -4437,13 +4473,13 @@
         <v>1413544</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,13 +4547,13 @@
         <v>68169</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>210</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>67</v>
@@ -4526,13 +4562,13 @@
         <v>79048</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>289</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>290</v>
+        <v>56</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -4541,13 +4577,13 @@
         <v>147216</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4598,13 @@
         <v>869398</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
         <v>892</v>
@@ -4577,13 +4613,13 @@
         <v>964731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>219</v>
+        <v>298</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>298</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
         <v>1750</v>
@@ -4672,7 +4708,7 @@
         <v>303</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>304</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>241</v>
@@ -4681,13 +4717,13 @@
         <v>277943</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M19" s="7">
         <v>526</v>
@@ -4696,13 +4732,13 @@
         <v>561750</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4720,10 +4756,10 @@
         <v>309</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="H20" s="7">
         <v>3097</v>
@@ -4732,13 +4768,13 @@
         <v>3266599</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>6043</v>
@@ -4747,10 +4783,10 @@
         <v>6377142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>315</v>
@@ -4809,7 +4845,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4830,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7398633C-0D9F-4F6B-9027-9FB9570580B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9281CF8-A37E-46A1-BF13-71EDB87647CA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5112,10 +5148,10 @@
         <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>59</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -5124,10 +5160,10 @@
         <v>48994</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>339</v>
@@ -5139,7 +5175,7 @@
         <v>104819</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>340</v>
@@ -5166,7 +5202,7 @@
         <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>887</v>
@@ -5175,13 +5211,13 @@
         <v>543968</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="M8" s="7">
         <v>1414</v>
@@ -5190,7 +5226,7 @@
         <v>1037966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>347</v>
@@ -5264,13 +5300,13 @@
         <v>82296</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="H10" s="7">
         <v>150</v>
@@ -5279,13 +5315,13 @@
         <v>80442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>351</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M10" s="7">
         <v>264</v>
@@ -5294,13 +5330,13 @@
         <v>162738</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,13 +5351,13 @@
         <v>956952</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>21</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>1366</v>
@@ -5330,13 +5366,13 @@
         <v>979032</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>2216</v>
@@ -5345,13 +5381,13 @@
         <v>1935984</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>191</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,13 +5455,13 @@
         <v>58545</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>358</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H13" s="7">
         <v>77</v>
@@ -5434,13 +5470,13 @@
         <v>47568</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>361</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -5449,13 +5485,13 @@
         <v>106113</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,13 +5506,13 @@
         <v>669156</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>368</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
         <v>969</v>
@@ -5485,13 +5521,13 @@
         <v>826178</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>371</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>1575</v>
@@ -5500,13 +5536,13 @@
         <v>1495334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,13 +5610,13 @@
         <v>93543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>142</v>
@@ -5589,13 +5625,13 @@
         <v>83216</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>266</v>
@@ -5604,13 +5640,13 @@
         <v>176759</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,13 +5661,13 @@
         <v>871860</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>280</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>1417</v>
@@ -5640,13 +5676,13 @@
         <v>1063087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>221</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>2299</v>
@@ -5655,13 +5691,13 @@
         <v>1934947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,13 +5765,13 @@
         <v>298003</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>293</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>75</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="H19" s="7">
         <v>522</v>
@@ -5744,13 +5780,13 @@
         <v>277810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>194</v>
+        <v>397</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>59</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>927</v>
@@ -5759,13 +5795,13 @@
         <v>575813</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5780,13 +5816,13 @@
         <v>3086155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>300</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>83</v>
       </c>
       <c r="H20" s="7">
         <v>4838</v>
@@ -5795,28 +5831,28 @@
         <v>3525408</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>203</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>67</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>7808</v>
       </c>
       <c r="N20" s="7">
-        <v>6611563</v>
+        <v>6611562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>408</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5858,7 +5894,7 @@
         <v>8735</v>
       </c>
       <c r="N21" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5872,7 +5908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C608E4-ED09-4313-B2EC-282834D2E5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A812100-E9BF-4A35-A086-AFCDC93B0DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{71FC454E-25C0-4DE0-8BB5-4317A265FA83}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8074F68D-B4EE-4265-A548-3517AE14E1C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="328">
   <si>
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -68,324 +68,267 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
     <t>93,93%</t>
   </si>
   <si>
@@ -404,868 +347,682 @@
     <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2012 (Tasa respuesta: 99,75%)</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>9,14%</t>
   </si>
   <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
   </si>
   <si>
     <t>90,86%</t>
   </si>
   <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
+    <t>91,79%</t>
   </si>
 </sst>
 </file>
@@ -1677,8 +1434,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91FB08A-82CC-40B4-A0A4-209CC41ED63E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2DAECB-0EE1-4D31-AEDE-33F98C8457CB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1795,10 +1552,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>7223</v>
+        <v>43494</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1810,10 +1567,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>5895</v>
+        <v>33675</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1825,10 +1582,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="N4" s="7">
-        <v>13119</v>
+        <v>77169</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1846,10 +1603,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>98</v>
+        <v>638</v>
       </c>
       <c r="D5" s="7">
-        <v>108135</v>
+        <v>649500</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1861,10 +1618,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>121</v>
+        <v>662</v>
       </c>
       <c r="I5" s="7">
-        <v>106860</v>
+        <v>654676</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1876,10 +1633,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>219</v>
+        <v>1300</v>
       </c>
       <c r="N5" s="7">
-        <v>214994</v>
+        <v>1304176</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1897,10 +1654,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>682</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>692994</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1912,10 +1669,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1927,10 +1684,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1378</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1381345</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1950,10 +1707,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>36271</v>
+        <v>59067</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1965,10 +1722,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>27780</v>
+        <v>73056</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1980,10 +1737,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="N7" s="7">
-        <v>64051</v>
+        <v>132123</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2001,10 +1758,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>540</v>
+        <v>838</v>
       </c>
       <c r="D8" s="7">
-        <v>541365</v>
+        <v>902733</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2016,10 +1773,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>541</v>
+        <v>840</v>
       </c>
       <c r="I8" s="7">
-        <v>547816</v>
+        <v>895337</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2031,10 +1788,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1081</v>
+        <v>1678</v>
       </c>
       <c r="N8" s="7">
-        <v>1089181</v>
+        <v>1798070</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2052,10 +1809,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>577</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>577636</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2067,10 +1824,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2082,10 +1839,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1145</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1153232</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2105,10 +1862,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D10" s="7">
-        <v>59067</v>
+        <v>31108</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2120,10 +1877,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>73056</v>
+        <v>40781</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2135,10 +1892,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="N10" s="7">
-        <v>132123</v>
+        <v>71889</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2156,10 +1913,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>838</v>
+        <v>609</v>
       </c>
       <c r="D11" s="7">
-        <v>902733</v>
+        <v>647401</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2171,10 +1928,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>840</v>
+        <v>654</v>
       </c>
       <c r="I11" s="7">
-        <v>895337</v>
+        <v>643060</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2186,10 +1943,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1678</v>
+        <v>1263</v>
       </c>
       <c r="N11" s="7">
-        <v>1798070</v>
+        <v>1290461</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2207,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2222,10 +1979,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2237,10 +1994,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2260,10 +2017,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>31108</v>
+        <v>49360</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2275,10 +2032,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I13" s="7">
-        <v>40781</v>
+        <v>57703</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2290,10 +2047,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="N13" s="7">
-        <v>71889</v>
+        <v>107062</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2311,10 +2068,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>609</v>
+        <v>937</v>
       </c>
       <c r="D14" s="7">
-        <v>647401</v>
+        <v>892862</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2326,10 +2083,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>654</v>
+        <v>941</v>
       </c>
       <c r="I14" s="7">
-        <v>643060</v>
+        <v>980909</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2341,10 +2098,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1263</v>
+        <v>1878</v>
       </c>
       <c r="N14" s="7">
-        <v>1290461</v>
+        <v>1873772</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2362,10 +2119,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2377,10 +2134,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2392,10 +2149,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2409,55 +2166,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="D16" s="7">
-        <v>49360</v>
+        <v>183028</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>200</v>
+      </c>
+      <c r="I16" s="7">
+        <v>205215</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="7">
+        <v>391</v>
+      </c>
+      <c r="N16" s="7">
+        <v>388244</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>56</v>
-      </c>
-      <c r="I16" s="7">
-        <v>57703</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>113</v>
-      </c>
-      <c r="N16" s="7">
-        <v>107062</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,49 +2223,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>937</v>
+        <v>3022</v>
       </c>
       <c r="D17" s="7">
-        <v>892862</v>
+        <v>3092497</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3097</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3173982</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6119</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6266478</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>941</v>
-      </c>
-      <c r="I17" s="7">
-        <v>980909</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1878</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1873772</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,10 +2274,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3213</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3275525</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2532,10 +2289,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2547,10 +2304,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6510</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6654722</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2563,171 +2320,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>191</v>
-      </c>
-      <c r="D19" s="7">
-        <v>183028</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>200</v>
-      </c>
-      <c r="I19" s="7">
-        <v>205215</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="7">
-        <v>391</v>
-      </c>
-      <c r="N19" s="7">
-        <v>388244</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3022</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3092497</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3097</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3173983</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6119</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6266478</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3213</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3275525</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6654722</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2740,8 +2341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC777DC-5E96-4800-A2E0-B6E95013C94A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A868EC68-129E-495E-9425-0FD609B47CA4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2757,7 +2358,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2858,49 +2459,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>4137</v>
+        <v>48629</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>5441</v>
+        <v>48597</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="N4" s="7">
-        <v>9578</v>
+        <v>97226</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2909,49 +2510,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>626</v>
       </c>
       <c r="D5" s="7">
-        <v>110813</v>
+        <v>652135</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>94</v>
+        <v>602</v>
       </c>
       <c r="I5" s="7">
-        <v>106464</v>
+        <v>645691</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
       <c r="M5" s="7">
-        <v>210</v>
+        <v>1228</v>
       </c>
       <c r="N5" s="7">
-        <v>217277</v>
+        <v>1297825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,10 +2561,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>671</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>700764</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2975,10 +2576,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>648</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>694288</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2990,10 +2591,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1319</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1395051</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3013,49 +2614,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>44492</v>
+        <v>65570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>43156</v>
+        <v>82234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="M7" s="7">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="N7" s="7">
-        <v>87648</v>
+        <v>147804</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,49 +2665,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>510</v>
+        <v>876</v>
       </c>
       <c r="D8" s="7">
-        <v>541322</v>
+        <v>952377</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
-        <v>508</v>
+        <v>860</v>
       </c>
       <c r="I8" s="7">
-        <v>539227</v>
+        <v>945541</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="M8" s="7">
-        <v>1018</v>
+        <v>1736</v>
       </c>
       <c r="N8" s="7">
-        <v>1080548</v>
+        <v>1897919</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,10 +2716,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>550</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>585814</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3130,10 +2731,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>549</v>
+        <v>936</v>
       </c>
       <c r="I9" s="7">
-        <v>582383</v>
+        <v>1027775</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3145,10 +2746,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1099</v>
+        <v>1872</v>
       </c>
       <c r="N9" s="7">
-        <v>1168196</v>
+        <v>2045723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3168,49 +2769,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>65570</v>
+        <v>48637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H10" s="7">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>82234</v>
+        <v>65872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="M10" s="7">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>147804</v>
+        <v>114508</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,49 +2820,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>876</v>
+        <v>644</v>
       </c>
       <c r="D11" s="7">
-        <v>952377</v>
+        <v>707901</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="H11" s="7">
-        <v>860</v>
+        <v>642</v>
       </c>
       <c r="I11" s="7">
-        <v>945542</v>
+        <v>710411</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
-        <v>1736</v>
+        <v>1286</v>
       </c>
       <c r="N11" s="7">
-        <v>1897918</v>
+        <v>1418313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,10 +2871,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3285,10 +2886,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>936</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1027776</v>
+        <v>776283</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3300,10 +2901,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1872</v>
+        <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>2045722</v>
+        <v>1532821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3323,49 +2924,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>48637</v>
+        <v>87235</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I13" s="7">
-        <v>65872</v>
+        <v>103284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="M13" s="7">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="N13" s="7">
-        <v>114508</v>
+        <v>190519</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,49 +2975,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>644</v>
+        <v>828</v>
       </c>
       <c r="D14" s="7">
-        <v>707901</v>
+        <v>858695</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="H14" s="7">
-        <v>642</v>
+        <v>901</v>
       </c>
       <c r="I14" s="7">
-        <v>710411</v>
+        <v>945479</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
-        <v>1286</v>
+        <v>1729</v>
       </c>
       <c r="N14" s="7">
-        <v>1418313</v>
+        <v>1804175</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,10 +3026,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>908</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>945930</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3440,10 +3041,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>776283</v>
+        <v>1048763</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3455,10 +3056,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1392</v>
+        <v>1908</v>
       </c>
       <c r="N15" s="7">
-        <v>1532821</v>
+        <v>1994694</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3472,55 +3073,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="D16" s="7">
-        <v>87235</v>
+        <v>250071</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="H16" s="7">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="I16" s="7">
-        <v>103284</v>
+        <v>299986</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="M16" s="7">
-        <v>179</v>
+        <v>512</v>
       </c>
       <c r="N16" s="7">
-        <v>190519</v>
+        <v>550056</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,49 +3130,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>828</v>
+        <v>2974</v>
       </c>
       <c r="D17" s="7">
-        <v>858695</v>
+        <v>3171108</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
-        <v>901</v>
+        <v>3005</v>
       </c>
       <c r="I17" s="7">
-        <v>945479</v>
+        <v>3247124</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="M17" s="7">
-        <v>1729</v>
+        <v>5979</v>
       </c>
       <c r="N17" s="7">
-        <v>1804175</v>
+        <v>6418233</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,10 +3181,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>908</v>
+        <v>3203</v>
       </c>
       <c r="D18" s="7">
-        <v>945930</v>
+        <v>3421179</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3595,10 +3196,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1000</v>
+        <v>3288</v>
       </c>
       <c r="I18" s="7">
-        <v>1048763</v>
+        <v>3547110</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3610,10 +3211,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1908</v>
+        <v>6491</v>
       </c>
       <c r="N18" s="7">
-        <v>1994694</v>
+        <v>6968289</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3626,171 +3227,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>229</v>
-      </c>
-      <c r="D19" s="7">
-        <v>250071</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="7">
-        <v>283</v>
-      </c>
-      <c r="I19" s="7">
-        <v>299986</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M19" s="7">
-        <v>512</v>
-      </c>
-      <c r="N19" s="7">
-        <v>550056</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2974</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3171108</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3005</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3247124</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5979</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6418232</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3203</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3421179</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3288</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3547110</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6491</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6968288</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3803,8 +3248,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90EF5337-2575-409B-95D0-5F1C6B654606}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F7D2D6-B72F-4502-810C-828CC0416A0D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3820,7 +3265,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3921,49 +3366,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D4" s="7">
-        <v>9086</v>
+        <v>65548</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>10365</v>
+        <v>58742</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="M4" s="7">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="N4" s="7">
-        <v>19451</v>
+        <v>124290</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,49 +3417,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>103</v>
+        <v>586</v>
       </c>
       <c r="D5" s="7">
-        <v>107460</v>
+        <v>609252</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>106</v>
+        <v>612</v>
       </c>
       <c r="I5" s="7">
-        <v>102995</v>
+        <v>614097</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>209</v>
+        <v>1198</v>
       </c>
       <c r="N5" s="7">
-        <v>210455</v>
+        <v>1223349</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,10 +3468,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4038,10 +3483,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4053,10 +3498,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4076,49 +3521,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7">
-        <v>56462</v>
+        <v>80432</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>48377</v>
+        <v>78793</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="M7" s="7">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="N7" s="7">
-        <v>104839</v>
+        <v>159225</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4127,49 +3572,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>483</v>
+        <v>870</v>
       </c>
       <c r="D8" s="7">
-        <v>501792</v>
+        <v>941999</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
       <c r="H8" s="7">
-        <v>506</v>
+        <v>911</v>
       </c>
       <c r="I8" s="7">
-        <v>511102</v>
+        <v>964120</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>211</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="M8" s="7">
-        <v>989</v>
+        <v>1781</v>
       </c>
       <c r="N8" s="7">
-        <v>1012894</v>
+        <v>1906119</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>214</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>215</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4193,10 +3638,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4208,10 +3653,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4231,49 +3676,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="D10" s="7">
-        <v>80432</v>
+        <v>69659</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I10" s="7">
-        <v>78793</v>
+        <v>61360</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="N10" s="7">
-        <v>159225</v>
+        <v>131019</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,49 +3727,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>870</v>
+        <v>632</v>
       </c>
       <c r="D11" s="7">
-        <v>941999</v>
+        <v>689893</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
-        <v>911</v>
+        <v>682</v>
       </c>
       <c r="I11" s="7">
-        <v>964120</v>
+        <v>723651</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>229</v>
       </c>
       <c r="M11" s="7">
-        <v>1781</v>
+        <v>1314</v>
       </c>
       <c r="N11" s="7">
-        <v>1906119</v>
+        <v>1413544</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,10 +3778,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4348,10 +3793,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4363,10 +3808,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4386,49 +3831,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>69659</v>
+        <v>68169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I13" s="7">
-        <v>61360</v>
+        <v>79048</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>118</v>
+        <v>141</v>
       </c>
       <c r="N13" s="7">
-        <v>131019</v>
+        <v>147216</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,49 +3882,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>632</v>
+        <v>858</v>
       </c>
       <c r="D14" s="7">
-        <v>689893</v>
+        <v>869398</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="H14" s="7">
-        <v>682</v>
+        <v>892</v>
       </c>
       <c r="I14" s="7">
-        <v>723651</v>
+        <v>964731</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>240</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>96</v>
       </c>
       <c r="M14" s="7">
-        <v>1314</v>
+        <v>1750</v>
       </c>
       <c r="N14" s="7">
-        <v>1413544</v>
+        <v>1834130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,10 +3933,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4503,10 +3948,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4518,10 +3963,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4535,55 +3980,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="D16" s="7">
-        <v>68169</v>
+        <v>283807</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
-        <v>67</v>
+        <v>241</v>
       </c>
       <c r="I16" s="7">
-        <v>79048</v>
+        <v>277943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>56</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
-        <v>141</v>
+        <v>526</v>
       </c>
       <c r="N16" s="7">
-        <v>147216</v>
+        <v>561750</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,49 +4037,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>858</v>
+        <v>2946</v>
       </c>
       <c r="D17" s="7">
-        <v>869398</v>
+        <v>3110543</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>252</v>
       </c>
       <c r="H17" s="7">
-        <v>892</v>
+        <v>3097</v>
       </c>
       <c r="I17" s="7">
-        <v>964731</v>
+        <v>3266599</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>255</v>
       </c>
       <c r="M17" s="7">
-        <v>1750</v>
+        <v>6043</v>
       </c>
       <c r="N17" s="7">
-        <v>1834130</v>
+        <v>6377142</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>299</v>
+        <v>48</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>300</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>301</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,10 +4088,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4658,10 +4103,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4673,10 +4118,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4689,171 +4134,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>285</v>
-      </c>
-      <c r="D19" s="7">
-        <v>283807</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H19" s="7">
-        <v>241</v>
-      </c>
-      <c r="I19" s="7">
-        <v>277943</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="M19" s="7">
-        <v>526</v>
-      </c>
-      <c r="N19" s="7">
-        <v>561750</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2946</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3110543</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3097</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3266599</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6043</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6377142</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4866,8 +4155,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9281CF8-A37E-46A1-BF13-71EDB87647CA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5D61D9-DFD3-4112-B6D5-64940429725D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4883,7 +4172,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>257</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4984,49 +4273,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D4" s="7">
-        <v>7793</v>
+        <v>61105</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>317</v>
+        <v>258</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>153</v>
       </c>
       <c r="I4" s="7">
-        <v>17591</v>
+        <v>62733</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>261</v>
       </c>
       <c r="M4" s="7">
-        <v>57</v>
+        <v>251</v>
       </c>
       <c r="N4" s="7">
-        <v>25385</v>
+        <v>123839</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>262</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>263</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,49 +4324,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>632</v>
       </c>
       <c r="D5" s="7">
-        <v>94189</v>
+        <v>574336</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>266</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
-        <v>199</v>
+        <v>1086</v>
       </c>
       <c r="I5" s="7">
-        <v>113142</v>
+        <v>613019</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>329</v>
+        <v>112</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>331</v>
+        <v>253</v>
       </c>
       <c r="M5" s="7">
-        <v>304</v>
+        <v>1718</v>
       </c>
       <c r="N5" s="7">
-        <v>207330</v>
+        <v>1187355</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>334</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,10 +4375,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5101,10 +4390,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1239</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675752</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5116,10 +4405,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1969</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1311194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5139,49 +4428,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="D7" s="7">
-        <v>55825</v>
+        <v>77779</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>272</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>273</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="H7" s="7">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="I7" s="7">
-        <v>48994</v>
+        <v>73395</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="M7" s="7">
-        <v>194</v>
+        <v>264</v>
       </c>
       <c r="N7" s="7">
-        <v>104819</v>
+        <v>151174</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,49 +4479,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>527</v>
+        <v>850</v>
       </c>
       <c r="D8" s="7">
-        <v>493998</v>
+        <v>1115085</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>281</v>
       </c>
       <c r="H8" s="7">
-        <v>887</v>
+        <v>1366</v>
       </c>
       <c r="I8" s="7">
-        <v>543968</v>
+        <v>884711</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>346</v>
+        <v>283</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="M8" s="7">
-        <v>1414</v>
+        <v>2216</v>
       </c>
       <c r="N8" s="7">
-        <v>1037966</v>
+        <v>1999797</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>163</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5256,10 +4545,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5271,10 +4560,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5294,49 +4583,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>82296</v>
+        <v>55605</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>286</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="H10" s="7">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="I10" s="7">
-        <v>80442</v>
+        <v>42932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="M10" s="7">
-        <v>264</v>
+        <v>146</v>
       </c>
       <c r="N10" s="7">
-        <v>162738</v>
+        <v>98536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5345,49 +4634,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>850</v>
+        <v>606</v>
       </c>
       <c r="D11" s="7">
-        <v>956952</v>
+        <v>648079</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>295</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>356</v>
+        <v>296</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="H11" s="7">
-        <v>1366</v>
+        <v>969</v>
       </c>
       <c r="I11" s="7">
-        <v>979032</v>
+        <v>889868</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>299</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>300</v>
       </c>
       <c r="M11" s="7">
-        <v>2216</v>
+        <v>1575</v>
       </c>
       <c r="N11" s="7">
-        <v>1935984</v>
+        <v>1537948</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>301</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,10 +4685,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>703684</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5411,10 +4700,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>932800</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5426,10 +4715,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1721</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1636484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5449,49 +4738,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>69</v>
+        <v>124</v>
       </c>
       <c r="D13" s="7">
-        <v>58545</v>
+        <v>87620</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>364</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>47568</v>
+        <v>74657</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>365</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>121</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>366</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
-        <v>146</v>
+        <v>266</v>
       </c>
       <c r="N13" s="7">
-        <v>106113</v>
+        <v>162277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>367</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>368</v>
+        <v>106</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>369</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5500,49 +4789,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>606</v>
+        <v>882</v>
       </c>
       <c r="D14" s="7">
-        <v>669156</v>
+        <v>839211</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>313</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="H14" s="7">
-        <v>969</v>
+        <v>1417</v>
       </c>
       <c r="I14" s="7">
-        <v>826178</v>
+        <v>1016717</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>315</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>316</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
       <c r="M14" s="7">
-        <v>1575</v>
+        <v>2299</v>
       </c>
       <c r="N14" s="7">
-        <v>1495334</v>
+        <v>1855928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>374</v>
+        <v>318</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>319</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,10 +4840,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>727701</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5566,10 +4855,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873746</v>
+        <v>1091374</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5581,10 +4870,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1721</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1601447</v>
+        <v>2018205</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5598,55 +4887,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>124</v>
+        <v>405</v>
       </c>
       <c r="D16" s="7">
-        <v>93543</v>
+        <v>282108</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>377</v>
+        <v>320</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>378</v>
+        <v>287</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
       <c r="H16" s="7">
-        <v>142</v>
+        <v>522</v>
       </c>
       <c r="I16" s="7">
-        <v>83216</v>
+        <v>253717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>380</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>381</v>
+        <v>39</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>382</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
-        <v>266</v>
+        <v>927</v>
       </c>
       <c r="N16" s="7">
-        <v>176759</v>
+        <v>535825</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>383</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>384</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,49 +4944,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>882</v>
+        <v>2970</v>
       </c>
       <c r="D17" s="7">
-        <v>871860</v>
+        <v>3176712</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>388</v>
+        <v>297</v>
       </c>
       <c r="H17" s="7">
-        <v>1417</v>
+        <v>4838</v>
       </c>
       <c r="I17" s="7">
-        <v>1063087</v>
+        <v>3404316</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>49</v>
       </c>
       <c r="M17" s="7">
-        <v>2299</v>
+        <v>7808</v>
       </c>
       <c r="N17" s="7">
-        <v>1934947</v>
+        <v>6581028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,10 +4995,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3375</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3458820</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5721,10 +5010,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1146303</v>
+        <v>3658033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5736,10 +5025,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8735</v>
       </c>
       <c r="N18" s="7">
-        <v>2111706</v>
+        <v>7116853</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5752,171 +5041,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>405</v>
-      </c>
-      <c r="D19" s="7">
-        <v>298003</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="H19" s="7">
-        <v>522</v>
-      </c>
-      <c r="I19" s="7">
-        <v>277810</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="M19" s="7">
-        <v>927</v>
-      </c>
-      <c r="N19" s="7">
-        <v>575813</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2970</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3086155</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4838</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3525408</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7808</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6611562</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3375</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8735</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7187375</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>119</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
